--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-12T04:41:35.298Z</t>
+    <t>2026-02-12T06:22:43.025Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -40,7 +40,7 @@
     <t>index.report.json</t>
   </si>
   <si>
-    <t>["hero-banner","cards-promo","carousel-banner","columns-offer","carousel-story","hero-story","columns-contact"]</t>
+    <t>["hero-banner","cards-product","cards-promo","hero-feature","cards-value","carousel-banner","columns-offer","carousel-story","hero-promo","hero-story","columns-contact","cards-links"]</t>
   </si>
   <si>
     <t>index</t>
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-12T06:22:43.025Z</t>
+    <t>2026-02-12T07:15:09.661Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-12T07:15:09.661Z</t>
+    <t>2026-02-12T10:57:16.636Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-12T10:57:16.636Z</t>
+    <t>2026-02-13T14:13:31.262Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-13T14:13:31.262Z</t>
+    <t>2026-02-13T16:57:52.650Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>
